--- a/biology/Botanique/Scille_d'automne/Scille_d'automne.xlsx
+++ b/biology/Botanique/Scille_d'automne/Scille_d'automne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scille_d%27automne</t>
+          <t>Scille_d'automne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prospero autumnale
 La Scille d'automne, Prospero autumnale (L.) Speta (syn. : Scilla autumnalis L.), est une plante qui appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique la place dans la famille des Hyacinthaceae (ou optionnellement dans celle des  Asparagaceae).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scille_d%27automne</t>
+          <t>Scille_d'automne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace de petite taille, glabre, à bulbe gros, ovale et blanchâtre, avec des feuilles basales, linéaires et très étroites, poussant parfois après les fleurs. Ces dernières forment des grappes, ou racèmes, assez denses. Le périanthe est constitué de six tépales (trois sépales et trois pétales identiques) de couleur généralement lilas ou violet assez pâle, plus rarement blancs. Six étamines à anthères violettes ou noirâtres. Le fruit est une capsule.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scille_d%27automne</t>
+          <t>Scille_d'automne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : racème simple
